--- a/file/Uzytkownicy.xlsx
+++ b/file/Uzytkownicy.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anikeenko/PycharmProjects/exsportDB/file/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A510821-D4CA-8142-B6D6-FE81234B084B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjR7sPb5ZtVvN9pFMvmk4gUTgCydg=="/>
@@ -261,24 +270,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -289,11 +300,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -307,46 +324,46 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="22" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -536,23 +553,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,21 +684,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2.0</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>40843.91527777778</v>
+        <v>40843.915277777778</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>37</v>
@@ -697,94 +719,94 @@
         <v>36</v>
       </c>
       <c r="L2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="U2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>3.0</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>40844.91527777778</v>
+        <v>40844.915277777778</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
@@ -805,94 +827,94 @@
         <v>36</v>
       </c>
       <c r="L3" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="U3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>4.0</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>40845.91527777778</v>
+        <v>40845.915277777778</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>42</v>
@@ -913,94 +935,94 @@
         <v>36</v>
       </c>
       <c r="L4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="U4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>5.0</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>40846.91527777778</v>
+        <v>40846.915277777778</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>44</v>
@@ -1021,94 +1043,94 @@
         <v>36</v>
       </c>
       <c r="L5" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>6.0</v>
+        <v>144</v>
       </c>
       <c r="B6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>40847.91527777778</v>
+        <v>40847.915277777778</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>46</v>
@@ -1129,94 +1151,94 @@
         <v>36</v>
       </c>
       <c r="L6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>47</v>
       </c>
       <c r="U6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>7.0</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>40848.91527777778</v>
+        <v>40848.915277777778</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>48</v>
@@ -1237,94 +1259,94 @@
         <v>36</v>
       </c>
       <c r="L7" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="U7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>8.0</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>40849.91527777778</v>
+        <v>40849.915277777778</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>50</v>
@@ -1345,94 +1367,94 @@
         <v>36</v>
       </c>
       <c r="L8" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="U8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>9.0</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>40850.91527777778</v>
+        <v>40850.915277777778</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>52</v>
@@ -1453,94 +1475,94 @@
         <v>36</v>
       </c>
       <c r="L9" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="U9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>10.0</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>40851.91527777778</v>
+        <v>40851.915277777778</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>54</v>
@@ -1561,94 +1583,94 @@
         <v>36</v>
       </c>
       <c r="L10" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="U10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>11.0</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>40852.91527777778</v>
+        <v>40852.915277777778</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>56</v>
@@ -1669,94 +1691,94 @@
         <v>36</v>
       </c>
       <c r="L11" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="U11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AJ11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>12.0</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>40853.91527777778</v>
+        <v>40853.915277777778</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
@@ -1777,94 +1799,94 @@
         <v>36</v>
       </c>
       <c r="L12" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>59</v>
       </c>
       <c r="U12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AJ12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>13.0</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>40854.91527777778</v>
+        <v>40854.915277777778</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>60</v>
@@ -1885,94 +1907,94 @@
         <v>36</v>
       </c>
       <c r="L13" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="U13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AJ13" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>14.0</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>40855.91527777778</v>
+        <v>40855.915277777778</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>62</v>
@@ -1993,94 +2015,94 @@
         <v>36</v>
       </c>
       <c r="L14" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>63</v>
       </c>
       <c r="U14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AJ14" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>15.0</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>40856.91527777778</v>
+        <v>40856.915277777778</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>64</v>
@@ -2101,94 +2123,94 @@
         <v>36</v>
       </c>
       <c r="L15" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>65</v>
       </c>
       <c r="U15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AJ15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>16.0</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>40857.91527777778</v>
+        <v>40857.915277777778</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>66</v>
@@ -2209,94 +2231,94 @@
         <v>36</v>
       </c>
       <c r="L16" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>67</v>
       </c>
       <c r="U16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AJ16" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>17.0</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>40858.91527777778</v>
+        <v>40858.915277777778</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>68</v>
@@ -2317,94 +2339,94 @@
         <v>36</v>
       </c>
       <c r="L17" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>69</v>
       </c>
       <c r="U17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AJ17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>18.0</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>40859.91527777778</v>
+        <v>40859.915277777778</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>70</v>
@@ -2425,94 +2447,94 @@
         <v>36</v>
       </c>
       <c r="L18" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>71</v>
       </c>
       <c r="U18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AJ18" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>19.0</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>40860.91527777778</v>
+        <v>40860.915277777778</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>72</v>
@@ -2533,94 +2555,94 @@
         <v>36</v>
       </c>
       <c r="L19" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>73</v>
       </c>
       <c r="U19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AJ19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>20.0</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>40861.91527777778</v>
+        <v>40861.915277777778</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>74</v>
@@ -2641,94 +2663,94 @@
         <v>36</v>
       </c>
       <c r="L20" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>75</v>
       </c>
       <c r="U20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AJ20" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>21.0</v>
+        <v>120</v>
       </c>
       <c r="B21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>40862.91527777778</v>
+        <v>40862.915277777778</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>76</v>
@@ -2749,94 +2771,94 @@
         <v>36</v>
       </c>
       <c r="L21" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>77</v>
       </c>
       <c r="U21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AJ21" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>22.0</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>40863.91527777778</v>
+        <v>40863.915277777778</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>78</v>
@@ -2857,1062 +2879,1062 @@
         <v>36</v>
       </c>
       <c r="L22" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>79</v>
       </c>
       <c r="U22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AJ22" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file/Uzytkownicy.xlsx
+++ b/file/Uzytkownicy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anikeenko/PycharmProjects/exsportDB/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A510821-D4CA-8142-B6D6-FE81234B084B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A72855-2F09-BB4B-9B58-002652A60F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -326,11 +326,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,16 +436,1330 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -360,6 +1770,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89ADECD6-9CCA-5F4A-A3B8-380FDB3E16CD}" name="Таблица1" displayName="Таблица1" ref="A1:AJ22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38">
+  <autoFilter ref="A1:AJ22" xr:uid="{89ADECD6-9CCA-5F4A-A3B8-380FDB3E16CD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="36">
+    <tableColumn id="1" xr3:uid="{BF631A39-C99F-AB42-B2DB-8BCF39745BC9}" name="Indeks" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{4B033A85-C8B7-F840-84EF-82D7058CA7A6}" name="Aktywny" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{7B7D4D53-C092-1548-8BA8-AC64787B579F}" name="Data" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{C9CBF5BD-3A44-6E4E-B5C2-9A4636782FAD}" name="Dealer" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{ECDF2313-5D88-4744-BB55-9469754A507C}" name="Del" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{3C942AA9-EB98-C84D-B284-957F43323176}" name="Haslo" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{D03C0228-2854-A24F-B626-93E6CB5AD5C6}" name="Imie" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{EF84300C-D60D-BD41-848B-0B04636D352A}" name="Login" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{78B02E55-AF7A-AB4A-BD1A-B4774ED4CBDA}" name="Nazwa" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{827274FE-1A00-D84C-857C-F74E31024292}" name="Nazwisko" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{17C7228F-0F4B-934B-B198-28428B44EC05}" name="Nip" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{1F0B401F-BDAC-AC41-8E36-815140C5A945}" name="Uprawnienia" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{FB8CE6B9-7FCD-DC46-BD56-5ABCABCB043C}" name="Usr" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{BC1B95A3-2584-6441-93E6-7B725C80DFD7}" name="Uwagi" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{1CE91AE8-CD53-784B-AAB9-EAD60D9A3AE3}" name="StawkaDzienna" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{586D7EC6-9F21-8D4E-807F-8E0E9B7B315E}" name="BarcodeIdx" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{3CBCA91F-BDCF-A24C-9A86-264F26A269F7}" name="Language" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{1FC48195-EC52-1849-A407-B7376CBA2964}" name="GrupaPlacowa" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{2A932935-A658-2543-B763-7ADD898BED40}" name="TworzenieArtykulow" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{79472162-03D4-C747-8F2D-03997691B291}" name="Email" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{A39DC07E-EBAF-BC45-8C89-39EDA9B164F2}" name="ZestawienieZlecenNaProdukcjiVisible" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{56D9B309-683F-EF4B-9BF9-F47981250893}" name="ZawartoscStojakowVisible" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{B96EA323-B806-D441-B281-465F7ECDED8C}" name="ZawartoscSamochodowVisible" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{FC5420DD-578B-0B41-B203-44A8CA62750B}" name="ZawartoscSektorowVisible" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{39C66D5F-7B5D-D34C-B842-299D2665B170}" name="ZawartoscSektorowSzkleniaVisible" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{21B3EEB3-3AB9-694B-8B09-34A33DEFF93A}" name="ZestawienieCzynnosciVisible" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{2D0193E7-850A-6A42-BCFD-8BD62F2B0024}" name="ZestawienieOdpowiedziNaPytaniaVisible" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{3553C5C5-0E29-FD4E-92CC-06D4679C9641}" name="ZestawienieRobociznyVisible" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{C1ED20E7-1543-1941-9090-17C0D5308E74}" name="ZestawienieBledowKomunikatowNotatekVisible" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{EF9A85EE-2771-914E-9C1C-FFB59705986B}" name="EksportWykonanychOscieznicVisible" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{2D4097DD-45F1-574E-AB26-9A596244EA76}" name="PostepRealizacjiVisible" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{C2A1D19C-2871-8D49-85DD-41875EEA8CF2}" name="DodajPracownikaVisible" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{8614B439-1E85-1240-870A-9E66FC154FBE}" name="CofnijSkanVisible" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{07A776F7-EF6D-2349-B6E2-DCC8C4997F87}" name="ZestawienieCzynnosciNewVisible" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{56EBE5F7-4A76-FB4A-A1EA-46BA711CD186}" name="VisibilityLastDateChange" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{3325AF53-A5FE-7149-8EBC-4FAA2F36D305}" name="Image" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,133 +2024,154 @@
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="32.6640625" customWidth="1"/>
+    <col min="22" max="22" width="23.5" customWidth="1"/>
+    <col min="23" max="23" width="26.83203125" customWidth="1"/>
+    <col min="24" max="24" width="23.83203125" customWidth="1"/>
+    <col min="25" max="25" width="30" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" customWidth="1"/>
+    <col min="27" max="27" width="35" customWidth="1"/>
+    <col min="28" max="28" width="26" customWidth="1"/>
+    <col min="29" max="29" width="40.83203125" customWidth="1"/>
+    <col min="30" max="30" width="31.5" customWidth="1"/>
+    <col min="31" max="31" width="21.33203125" customWidth="1"/>
+    <col min="32" max="32" width="22.1640625" customWidth="1"/>
+    <col min="33" max="33" width="16.83203125" customWidth="1"/>
+    <col min="34" max="34" width="29.1640625" customWidth="1"/>
+    <col min="35" max="35" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>46</v>
+      <c r="A2" s="8">
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>40843.915277777778</v>
+        <v>40858.915277777778</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
@@ -701,19 +2180,19 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>36</v>
@@ -724,7 +2203,7 @@
       <c r="M2" s="2">
         <v>0</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -741,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="U2" s="2">
         <v>1</v>
@@ -786,21 +2265,21 @@
         <v>0</v>
       </c>
       <c r="AI2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>132</v>
+      <c r="A3" s="8">
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>40844.915277777778</v>
+        <v>40846.915277777778</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -809,19 +2288,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>36</v>
@@ -832,7 +2311,7 @@
       <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="2">
         <v>0</v>
       </c>
@@ -849,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U3" s="2">
         <v>1</v>
@@ -894,44 +2373,44 @@
         <v>0</v>
       </c>
       <c r="AI3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>118</v>
+      <c r="A4" s="7">
+        <v>37</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>40845.915277777778</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>40863.915277777778</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="F4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L4" s="2">
@@ -940,14 +2419,14 @@
       <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
         <v>11</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="R4" s="2">
@@ -957,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="U4" s="2">
         <v>1</v>
@@ -1002,21 +2481,21 @@
         <v>0</v>
       </c>
       <c r="AI4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>35</v>
+      <c r="A5" s="7">
+        <v>46</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>40846.915277777778</v>
+        <v>40843.915277777778</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -1025,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>36</v>
@@ -1048,7 +2527,7 @@
       <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="2">
         <v>0</v>
       </c>
@@ -1065,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="U5" s="2">
         <v>1</v>
@@ -1110,21 +2589,21 @@
         <v>0</v>
       </c>
       <c r="AI5" s="3">
-        <v>4</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>144</v>
+      <c r="A6" s="8">
+        <v>56</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>40847.915277777778</v>
+        <v>40852.915277777778</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>
@@ -1133,19 +2612,19 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>36</v>
@@ -1156,7 +2635,7 @@
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="2">
         <v>0</v>
       </c>
@@ -1173,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="U6" s="2">
         <v>1</v>
@@ -1218,21 +2697,21 @@
         <v>0</v>
       </c>
       <c r="AI6" s="3">
-        <v>5</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>67</v>
+      <c r="A7" s="8">
+        <v>58</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>40848.915277777778</v>
+        <v>40849.915277777778</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
@@ -1241,19 +2720,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>36</v>
@@ -1264,7 +2743,7 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="2">
         <v>0</v>
       </c>
@@ -1281,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U7" s="2">
         <v>1</v>
@@ -1326,21 +2805,21 @@
         <v>0</v>
       </c>
       <c r="AI7" s="3">
-        <v>6</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>58</v>
+      <c r="A8" s="8">
+        <v>60</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>40849.915277777778</v>
+        <v>40857.915277777778</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
@@ -1349,19 +2828,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>36</v>
@@ -1372,7 +2851,7 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="2">
         <v>0</v>
       </c>
@@ -1389,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="U8" s="2">
         <v>1</v>
@@ -1434,14 +2913,14 @@
         <v>0</v>
       </c>
       <c r="AI8" s="3">
-        <v>7</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="8">
         <v>64</v>
       </c>
       <c r="B9" s="2">
@@ -1480,7 +2959,7 @@
       <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="2">
         <v>0</v>
       </c>
@@ -1544,19 +3023,19 @@
       <c r="AI9" s="3">
         <v>8</v>
       </c>
-      <c r="AJ9" s="1" t="s">
+      <c r="AJ9" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>85</v>
+      <c r="A10" s="8">
+        <v>67</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>40851.915277777778</v>
+        <v>40848.915277777778</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
@@ -1565,19 +3044,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>36</v>
@@ -1588,7 +3067,7 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="2">
         <v>0</v>
       </c>
@@ -1605,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="U10" s="2">
         <v>1</v>
@@ -1650,21 +3129,21 @@
         <v>0</v>
       </c>
       <c r="AI10" s="3">
-        <v>9</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>56</v>
+      <c r="A11" s="7">
+        <v>85</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>40852.915277777778</v>
+        <v>40851.915277777778</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
@@ -1673,19 +3152,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>36</v>
@@ -1696,7 +3175,7 @@
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="2">
         <v>0</v>
       </c>
@@ -1713,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U11" s="2">
         <v>1</v>
@@ -1758,21 +3237,21 @@
         <v>0</v>
       </c>
       <c r="AI11" s="3">
-        <v>10</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>128</v>
+      <c r="A12" s="8">
+        <v>91</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>40853.915277777778</v>
+        <v>40861.915277777778</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
@@ -1781,19 +3260,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>36</v>
@@ -1804,7 +3283,7 @@
       <c r="M12" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="2">
         <v>0</v>
       </c>
@@ -1821,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="U12" s="2">
         <v>1</v>
@@ -1866,21 +3345,21 @@
         <v>0</v>
       </c>
       <c r="AI12" s="3">
-        <v>11</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>145</v>
+      <c r="A13" s="7">
+        <v>94</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>40854.915277777778</v>
+        <v>40855.915277777778</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>36</v>
@@ -1889,19 +3368,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>36</v>
@@ -1912,7 +3391,7 @@
       <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="2">
         <v>0</v>
       </c>
@@ -1929,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U13" s="2">
         <v>1</v>
@@ -1974,21 +3453,21 @@
         <v>0</v>
       </c>
       <c r="AI13" s="3">
-        <v>12</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>94</v>
+      <c r="A14" s="8">
+        <v>103</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>40855.915277777778</v>
+        <v>40860.915277777778</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>36</v>
@@ -1997,19 +3476,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>36</v>
@@ -2020,7 +3499,7 @@
       <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="2">
         <v>0</v>
       </c>
@@ -2037,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="U14" s="2">
         <v>1</v>
@@ -2082,21 +3561,21 @@
         <v>0</v>
       </c>
       <c r="AI14" s="3">
-        <v>13</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>123</v>
+      <c r="A15" s="7">
+        <v>111</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>40856.915277777778</v>
+        <v>40859.915277777778</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>36</v>
@@ -2105,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>36</v>
@@ -2128,7 +3607,7 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="2">
         <v>0</v>
       </c>
@@ -2145,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="U15" s="2">
         <v>1</v>
@@ -2190,21 +3669,21 @@
         <v>0</v>
       </c>
       <c r="AI15" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>60</v>
+      <c r="A16" s="8">
+        <v>118</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>40857.915277777778</v>
+        <v>40845.915277777778</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -2213,19 +3692,19 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>36</v>
@@ -2236,7 +3715,7 @@
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="2">
         <v>0</v>
       </c>
@@ -2253,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="U16" s="2">
         <v>1</v>
@@ -2298,21 +3777,21 @@
         <v>0</v>
       </c>
       <c r="AI16" s="3">
-        <v>15</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>34</v>
+      <c r="A17" s="8">
+        <v>120</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>40858.915277777778</v>
+        <v>40862.915277777778</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>36</v>
@@ -2321,19 +3800,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>36</v>
@@ -2344,7 +3823,7 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="6"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="2">
         <v>0</v>
       </c>
@@ -2361,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="U17" s="2">
         <v>1</v>
@@ -2406,21 +3885,21 @@
         <v>0</v>
       </c>
       <c r="AI17" s="3">
-        <v>16</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
+      </c>
+      <c r="AJ17" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>111</v>
+      <c r="A18" s="8">
+        <v>123</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>40859.915277777778</v>
+        <v>40856.915277777778</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
@@ -2429,19 +3908,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>36</v>
@@ -2452,7 +3931,7 @@
       <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="2">
         <v>0</v>
       </c>
@@ -2469,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="U18" s="2">
         <v>1</v>
@@ -2514,21 +3993,21 @@
         <v>0</v>
       </c>
       <c r="AI18" s="3">
-        <v>17</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="AJ18" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>103</v>
+      <c r="A19" s="8">
+        <v>128</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>40860.915277777778</v>
+        <v>40853.915277777778</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>36</v>
@@ -2537,19 +4016,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>36</v>
@@ -2560,7 +4039,7 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="2">
         <v>0</v>
       </c>
@@ -2577,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="U19" s="2">
         <v>1</v>
@@ -2622,21 +4101,21 @@
         <v>0</v>
       </c>
       <c r="AI19" s="3">
-        <v>18</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="AJ19" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>91</v>
+      <c r="A20" s="8">
+        <v>132</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>40861.915277777778</v>
+        <v>40844.915277777778</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>36</v>
@@ -2645,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>36</v>
@@ -2668,7 +4147,7 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="2">
         <v>0</v>
       </c>
@@ -2685,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="U20" s="2">
         <v>1</v>
@@ -2730,21 +4209,21 @@
         <v>0</v>
       </c>
       <c r="AI20" s="3">
-        <v>19</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>120</v>
+      <c r="A21" s="7">
+        <v>144</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>40862.915277777778</v>
+        <v>40847.915277777778</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>36</v>
@@ -2753,19 +4232,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>36</v>
@@ -2776,7 +4255,7 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="2">
         <v>0</v>
       </c>
@@ -2793,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="U21" s="2">
         <v>1</v>
@@ -2838,130 +4317,130 @@
         <v>0</v>
       </c>
       <c r="AI21" s="3">
-        <v>20</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>76</v>
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>40863.915277777778</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="A22" s="18">
+        <v>145</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>40854.915277777778</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="13">
         <v>5</v>
       </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
         <v>11</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="U22" s="2">
-        <v>1</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1</v>
-      </c>
-      <c r="W22" s="2">
-        <v>1</v>
-      </c>
-      <c r="X22" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>21</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>78</v>
+      <c r="R22" s="13">
+        <v>0</v>
+      </c>
+      <c r="S22" s="13">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="U22" s="13">
+        <v>1</v>
+      </c>
+      <c r="V22" s="13">
+        <v>1</v>
+      </c>
+      <c r="W22" s="13">
+        <v>1</v>
+      </c>
+      <c r="X22" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="14">
+        <v>12</v>
+      </c>
+      <c r="AJ22" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3936,5 +5415,8 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>